--- a/arduino_pin.xlsx
+++ b/arduino_pin.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bluew\ARLISS\AL_Circuit\Circuit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickn/Desktop/IwataProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11070"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32660" windowHeight="20540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
   <si>
     <t>digital pin</t>
     <phoneticPr fontId="1"/>
@@ -232,11 +238,22 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>SD挿入是非</t>
+    <rPh sb="2" eb="6">
+      <t>ソウニュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SDが挿入されているか判定</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,7 +361,7 @@
         <xdr:cNvPr id="3" name="図 2" descr="https://s-media-cache-ak0.pinimg.com/originals/aa/c6/d1/aac6d1487157283d2b0905c91d6775c1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C011CA-BF08-4C24-BF78-0092E9781633}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C011CA-BF08-4C24-BF78-0092E9781633}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -689,18 +706,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.9375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.8125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -714,7 +731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -728,7 +745,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -742,7 +759,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -756,7 +773,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -767,7 +784,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -781,7 +798,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -795,7 +812,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -809,7 +826,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -823,7 +840,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -834,7 +851,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -845,7 +862,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -855,8 +872,11 @@
       <c r="C15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -865,7 +885,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -876,7 +896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -884,7 +904,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -892,7 +912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -900,7 +920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -908,7 +928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -916,7 +936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -924,7 +944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -932,7 +952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>20</v>
       </c>
@@ -943,7 +963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>21</v>
       </c>
@@ -954,15 +974,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>22</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>23</v>
       </c>
@@ -970,7 +993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>24</v>
       </c>
@@ -978,7 +1001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -986,7 +1009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>26</v>
       </c>
@@ -994,7 +1017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>27</v>
       </c>
@@ -1002,7 +1025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>28</v>
       </c>
@@ -1010,7 +1033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>29</v>
       </c>
@@ -1018,7 +1041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30</v>
       </c>
@@ -1026,7 +1049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>31</v>
       </c>
@@ -1034,7 +1057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>32</v>
       </c>
@@ -1042,7 +1065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>33</v>
       </c>
@@ -1050,7 +1073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>34</v>
       </c>
@@ -1058,7 +1081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>35</v>
       </c>
@@ -1066,7 +1089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>36</v>
       </c>
@@ -1074,7 +1097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>37</v>
       </c>
@@ -1082,7 +1105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>38</v>
       </c>
@@ -1090,7 +1113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>39</v>
       </c>
@@ -1098,7 +1121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40</v>
       </c>
@@ -1106,7 +1129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>41</v>
       </c>
@@ -1114,7 +1137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>42</v>
       </c>
@@ -1122,7 +1145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43</v>
       </c>
@@ -1133,7 +1156,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44</v>
       </c>
@@ -1141,7 +1164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45</v>
       </c>
@@ -1149,7 +1172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>46</v>
       </c>
@@ -1157,7 +1180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>47</v>
       </c>
@@ -1165,7 +1188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>48</v>
       </c>
@@ -1173,7 +1196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>49</v>
       </c>
@@ -1181,7 +1204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>50</v>
       </c>
@@ -1192,7 +1215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>51</v>
       </c>
@@ -1203,7 +1226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>52</v>
       </c>
@@ -1214,7 +1237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>53</v>
       </c>
@@ -1225,12 +1248,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -1238,7 +1261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -1246,7 +1269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -1254,7 +1277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>3</v>
       </c>
@@ -1262,7 +1285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>4</v>
       </c>
@@ -1270,7 +1293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>5</v>
       </c>
@@ -1278,7 +1301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>6</v>
       </c>
@@ -1286,7 +1309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>7</v>
       </c>
@@ -1294,7 +1317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>8</v>
       </c>
@@ -1302,7 +1325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>9</v>
       </c>
@@ -1310,7 +1333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>10</v>
       </c>
@@ -1318,7 +1341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>11</v>
       </c>
@@ -1326,7 +1349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>12</v>
       </c>
@@ -1337,7 +1360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>13</v>
       </c>
@@ -1345,7 +1368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>14</v>
       </c>
@@ -1353,7 +1376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>15</v>
       </c>

--- a/arduino_pin.xlsx
+++ b/arduino_pin.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28410"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32660" windowHeight="20540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32620" windowHeight="20540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
   <si>
     <t>digital pin</t>
     <phoneticPr fontId="1"/>
@@ -247,6 +247,14 @@
   </si>
   <si>
     <t>SDが挿入されているか判定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Xbee RX(New)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Xbee TX(New)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -361,7 +369,7 @@
         <xdr:cNvPr id="3" name="図 2" descr="https://s-media-cache-ak0.pinimg.com/originals/aa/c6/d1/aac6d1487157283d2b0905c91d6775c1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C011CA-BF08-4C24-BF78-0092E9781633}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C011CA-BF08-4C24-BF78-0092E9781633}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -706,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -935,6 +943,9 @@
       <c r="B22" t="s">
         <v>8</v>
       </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -942,6 +953,9 @@
       </c>
       <c r="B23" t="s">
         <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
